--- a/Data/Master_Data/Michael_Obafemi.xlsx
+++ b/Data/Master_Data/Michael_Obafemi.xlsx
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,22 +616,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43121</v>
+        <v>43687</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>24</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -670,43 +670,43 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="W2">
         <v>4</v>
       </c>
       <c r="X2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AC2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>120</v>
+        <v>-70</v>
       </c>
       <c r="AL2">
-        <v>40</v>
+        <v>-80</v>
       </c>
       <c r="AM2">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -735,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43131</v>
+        <v>43694</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK3">
-        <v>140</v>
+        <v>-200</v>
       </c>
       <c r="AL3">
-        <v>-20</v>
+        <v>-240</v>
       </c>
       <c r="AM3">
-        <v>80</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -845,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43134</v>
+        <v>43701</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -935,30 +935,30 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ4">
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>-90</v>
+        <v>-10</v>
       </c>
       <c r="AL4">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="AM4">
-        <v>-10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>43142</v>
+        <v>43708</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1024,16 +1024,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1045,30 +1045,30 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK5">
-        <v>-200</v>
+        <v>-150</v>
       </c>
       <c r="AL5">
-        <v>-240</v>
+        <v>-250</v>
       </c>
       <c r="AM5">
-        <v>-220</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>43155</v>
+        <v>43722</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1155,30 +1155,30 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>-70</v>
+        <v>-140</v>
       </c>
       <c r="AL6">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="AM6">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
-        <v>43162</v>
+        <v>43728</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1265,36 +1265,36 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>-90</v>
+        <v>130</v>
       </c>
       <c r="AL7">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="AM7">
-        <v>-30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>43169</v>
+        <v>43736</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1354,57 +1354,66 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK8">
+        <v>-140</v>
+      </c>
+      <c r="AL8">
         <v>-50</v>
       </c>
-      <c r="AL8">
-        <v>20</v>
-      </c>
       <c r="AM8">
-        <v>100</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>43190</v>
+        <v>43744</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1437,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1449,66 +1458,75 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>-3</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AL9">
-        <v>50</v>
+        <v>-160</v>
       </c>
       <c r="AM9">
-        <v>50</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>43198</v>
+        <v>43757</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1574,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1595,105 +1613,105 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>-1</v>
       </c>
       <c r="AK10">
-        <v>-140</v>
+        <v>-190</v>
       </c>
       <c r="AL10">
+        <v>-130</v>
+      </c>
+      <c r="AM10">
         <v>-120</v>
-      </c>
-      <c r="AM10">
-        <v>-70</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="1">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43763</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>43204</v>
-      </c>
-      <c r="C11">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>3</v>
-      </c>
       <c r="Z11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1705,30 +1723,30 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="AJ11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>-80</v>
+        <v>-10</v>
       </c>
       <c r="AL11">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>-140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>43209</v>
+        <v>43771</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1794,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1815,30 +1833,30 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK12">
-        <v>-170</v>
+        <v>-290</v>
       </c>
       <c r="AL12">
-        <v>-100</v>
+        <v>-210</v>
       </c>
       <c r="AM12">
-        <v>-130</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>43218</v>
+        <v>43778</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1904,63 +1922,72 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>130</v>
+        <v>-90</v>
       </c>
       <c r="AL13">
-        <v>50</v>
+        <v>-130</v>
       </c>
       <c r="AM13">
-        <v>60</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>43225</v>
+        <v>43792</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1969,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1999,72 +2026,81 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.2</v>
+      </c>
+      <c r="AF14">
         <v>7</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK14">
-        <v>-60</v>
+        <v>-140</v>
       </c>
       <c r="AL14">
-        <v>-50</v>
+        <v>-120</v>
       </c>
       <c r="AM14">
-        <v>-90</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>43228</v>
+        <v>43799</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2109,142 +2145,151 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
         <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>-110</v>
+        <v>10</v>
       </c>
       <c r="AL15">
-        <v>-80</v>
+        <v>-40</v>
       </c>
       <c r="AM15">
-        <v>50</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43803</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>43233</v>
-      </c>
-      <c r="C16">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>11</v>
-      </c>
       <c r="AF16">
         <v>0</v>
       </c>
@@ -2255,36 +2300,36 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>-190</v>
+        <v>130</v>
       </c>
       <c r="AL16">
-        <v>-190</v>
+        <v>40</v>
       </c>
       <c r="AM16">
-        <v>-210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>43408</v>
+        <v>43807</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2296,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2329,25 +2374,25 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
       <c r="Z17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2355,49 +2400,40 @@
       <c r="AB17">
         <v>13</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0.2</v>
-      </c>
       <c r="AF17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="AJ17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>-290</v>
+        <v>-50</v>
       </c>
       <c r="AL17">
-        <v>-210</v>
+        <v>20</v>
       </c>
       <c r="AM17">
-        <v>-240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>43414</v>
+        <v>43813</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2421,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2466,43 +2502,34 @@
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>18</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AL18">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="AM18">
         <v>-40</v>
@@ -2510,25 +2537,25 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>43428</v>
+        <v>43820</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2558,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2570,87 +2597,87 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>3</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>9</v>
-      </c>
-      <c r="AC19">
-        <v>0.5</v>
-      </c>
-      <c r="AD19">
-        <v>0.5</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>-2</v>
-      </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19">
         <v>20</v>
       </c>
       <c r="AL19">
-        <v>-20</v>
+        <v>80</v>
       </c>
       <c r="AM19">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>43435</v>
+        <v>43825</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2683,78 +2710,78 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>15.4</v>
+        <v>36</v>
       </c>
       <c r="V20">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="X20">
-        <v>4.9</v>
+        <v>7.7</v>
       </c>
       <c r="Y20">
         <v>2</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AC20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ20">
         <v>-1</v>
       </c>
       <c r="AK20">
-        <v>-150</v>
+        <v>-180</v>
       </c>
       <c r="AL20">
-        <v>-250</v>
+        <v>-190</v>
       </c>
       <c r="AM20">
-        <v>-150</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>43439</v>
+        <v>43827</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2823,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2841,36 +2868,36 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>-140</v>
+        <v>30</v>
       </c>
       <c r="AL21">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="AM21">
-        <v>-120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2">
-        <v>43442</v>
+        <v>43831</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2918,16 +2945,16 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2936,45 +2963,54 @@
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
         <v>-1</v>
       </c>
-      <c r="AJ22">
-        <v>2</v>
-      </c>
       <c r="AK22">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="AL22">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="AM22">
-        <v>50</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>43450</v>
+        <v>43841</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3043,13 +3079,13 @@
         <v>2</v>
       </c>
       <c r="Z23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3064,42 +3100,42 @@
         <v>1</v>
       </c>
       <c r="AJ23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK23">
-        <v>-90</v>
+        <v>-170</v>
       </c>
       <c r="AL23">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="AM23">
-        <v>-90</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>43456</v>
+        <v>43848</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3108,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3123,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3132,102 +3168,93 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>3</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>10</v>
-      </c>
-      <c r="AC24">
-        <v>1.1</v>
-      </c>
-      <c r="AD24">
-        <v>1.1</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK24">
-        <v>50</v>
+        <v>-40</v>
       </c>
       <c r="AL24">
-        <v>10</v>
+        <v>-150</v>
       </c>
       <c r="AM24">
-        <v>100</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2">
-        <v>43461</v>
+        <v>43851</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3242,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3257,70 +3284,79 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>38.4</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="Y25">
         <v>2</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.5</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>120</v>
+        <v>-90</v>
       </c>
       <c r="AL25">
-        <v>50</v>
+        <v>-30</v>
       </c>
       <c r="AM25">
-        <v>-40</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>43464</v>
+        <v>43862</v>
       </c>
       <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>20</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -3364,72 +3400,81 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>10</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>3</v>
       </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <v>13</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AJ26">
         <v>-2</v>
       </c>
       <c r="AK26">
-        <v>-190</v>
+        <v>-300</v>
       </c>
       <c r="AL26">
-        <v>-190</v>
+        <v>-260</v>
       </c>
       <c r="AM26">
-        <v>-210</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>43467</v>
+        <v>43876</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3444,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3465,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3480,28 +3525,37 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3510,45 +3564,45 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>-180</v>
+        <v>-30</v>
       </c>
       <c r="AL27">
-        <v>-190</v>
+        <v>10</v>
       </c>
       <c r="AM27">
-        <v>-140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
-        <v>43477</v>
+        <v>43883</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3557,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3587,84 +3641,93 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="AC28">
+        <v>0.3</v>
+      </c>
+      <c r="AD28">
+        <v>0.3</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>-170</v>
+        <v>100</v>
       </c>
       <c r="AL28">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM28">
-        <v>-130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2">
-        <v>43484</v>
+        <v>43890</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3682,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3691,75 +3754,84 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Y29">
         <v>1</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="AC29">
+        <v>0.4</v>
+      </c>
+      <c r="AD29">
+        <v>0.4</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG29">
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>-130</v>
+        <v>50</v>
       </c>
       <c r="AM29">
-        <v>-70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
-        <v>43495</v>
+        <v>43897</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3807,1601 +3879,61 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ30">
         <v>0</v>
       </c>
       <c r="AK30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AL30">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="AM30">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43498</v>
-      </c>
-      <c r="C31">
-        <v>25</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>4</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>-1</v>
-      </c>
-      <c r="AK31">
-        <v>-70</v>
-      </c>
-      <c r="AL31">
-        <v>-80</v>
-      </c>
-      <c r="AM31">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43505</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32">
-        <v>5</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>-1</v>
-      </c>
-      <c r="AJ32">
-        <v>2</v>
-      </c>
-      <c r="AK32">
-        <v>150</v>
-      </c>
-      <c r="AL32">
-        <v>-10</v>
-      </c>
-      <c r="AM32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43520</v>
-      </c>
-      <c r="C33">
-        <v>27</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>4</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>1</v>
-      </c>
-      <c r="AI33">
-        <v>-2</v>
-      </c>
-      <c r="AJ33">
-        <v>-1</v>
-      </c>
-      <c r="AK33">
-        <v>-140</v>
-      </c>
-      <c r="AL33">
-        <v>-120</v>
-      </c>
-      <c r="AM33">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43523</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>2</v>
-      </c>
-      <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <v>9</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>2</v>
-      </c>
-      <c r="AJ34">
-        <v>2</v>
-      </c>
-      <c r="AK34">
-        <v>170</v>
-      </c>
-      <c r="AL34">
-        <v>10</v>
-      </c>
-      <c r="AM34">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43526</v>
-      </c>
-      <c r="C35">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>2</v>
-      </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>14</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>-1</v>
-      </c>
-      <c r="AJ35">
-        <v>-1</v>
-      </c>
-      <c r="AK35">
-        <v>-180</v>
-      </c>
-      <c r="AL35">
-        <v>-210</v>
-      </c>
-      <c r="AM35">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43533</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <v>17</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AJ36">
-        <v>-1</v>
-      </c>
-      <c r="AK36">
-        <v>-90</v>
-      </c>
-      <c r="AL36">
-        <v>-50</v>
-      </c>
-      <c r="AM36">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43554</v>
-      </c>
-      <c r="C37">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>3</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AJ37">
-        <v>1</v>
-      </c>
-      <c r="AK37">
-        <v>-10</v>
-      </c>
-      <c r="AL37">
-        <v>-50</v>
-      </c>
-      <c r="AM37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43560</v>
-      </c>
-      <c r="C38">
-        <v>33</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>3</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38">
-        <v>1</v>
-      </c>
-      <c r="AB38">
-        <v>12</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>-2</v>
-      </c>
-      <c r="AJ38">
-        <v>-2</v>
-      </c>
-      <c r="AK38">
-        <v>-200</v>
-      </c>
-      <c r="AL38">
-        <v>-240</v>
-      </c>
-      <c r="AM38">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43568</v>
-      </c>
-      <c r="C39">
-        <v>34</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <v>3</v>
-      </c>
-      <c r="AA39">
-        <v>1</v>
-      </c>
-      <c r="AB39">
-        <v>20</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>2</v>
-      </c>
-      <c r="AJ39">
-        <v>-1</v>
-      </c>
-      <c r="AK39">
-        <v>-40</v>
-      </c>
-      <c r="AL39">
-        <v>-150</v>
-      </c>
-      <c r="AM39">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>43575</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-      <c r="Z40">
-        <v>3</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>15</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>-2</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>-50</v>
-      </c>
-      <c r="AL40">
-        <v>20</v>
-      </c>
-      <c r="AM40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
-        <v>43578</v>
-      </c>
-      <c r="C41">
-        <v>35</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>18</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>10</v>
-      </c>
-      <c r="AL41">
-        <v>-70</v>
-      </c>
-      <c r="AM41">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <v>43582</v>
-      </c>
-      <c r="C42">
-        <v>36</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>3</v>
-      </c>
-      <c r="Z42">
-        <v>3</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
-      </c>
-      <c r="AB42">
-        <v>2</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>1</v>
-      </c>
-      <c r="AK42">
-        <v>130</v>
-      </c>
-      <c r="AL42">
-        <v>50</v>
-      </c>
-      <c r="AM42">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
-        <v>43589</v>
-      </c>
-      <c r="C43">
-        <v>37</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>3</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>19</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>-3</v>
-      </c>
-      <c r="AJ43">
-        <v>1</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>50</v>
-      </c>
-      <c r="AM43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
-        <v>43597</v>
-      </c>
-      <c r="C44">
-        <v>38</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AB44">
-        <v>10</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>2</v>
-      </c>
-      <c r="AK44">
-        <v>200</v>
-      </c>
-      <c r="AL44">
-        <v>40</v>
-      </c>
-      <c r="AM44">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
